--- a/premium/src/main/resources/hospital_cash_floater.xlsx
+++ b/premium/src/main/resources/hospital_cash_floater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B48F3-63C3-5E4C-86CE-9F2FC8689AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D280B7-D9F8-BC4B-B328-0FEA970AAA71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{29817701-F838-B748-AA0F-DEA832F4089D}"/>
   </bookViews>
@@ -118,22 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +446,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,119 +472,119 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>320</v>
+      <c r="B2" s="3">
+        <v>703</v>
       </c>
       <c r="C2" s="3">
-        <v>640</v>
+        <v>773</v>
       </c>
       <c r="D2" s="3">
-        <v>1280</v>
+        <v>843</v>
       </c>
       <c r="E2" s="3">
-        <v>2560</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>336</v>
-      </c>
-      <c r="C3" s="4">
-        <v>672</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1344</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2688</v>
+      <c r="B3" s="3">
+        <v>936</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1029</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1123</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>352</v>
-      </c>
-      <c r="C4" s="4">
-        <v>704</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1408</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2816</v>
+      <c r="B4" s="3">
+        <v>1419</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1561</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1703</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1845</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>368</v>
-      </c>
-      <c r="C5" s="4">
-        <v>736</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1472</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2944</v>
+      <c r="B5" s="3">
+        <v>1812</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1993</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2174</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2356</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>384</v>
-      </c>
-      <c r="C6" s="4">
-        <v>768</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1536</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3072</v>
+      <c r="B6" s="3">
+        <v>2082</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2290</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2498</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2706</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>400</v>
-      </c>
-      <c r="C7" s="4">
-        <v>800</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3200</v>
+      <c r="B7" s="3">
+        <v>2688</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2957</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3225</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3494</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>416</v>
-      </c>
-      <c r="C8" s="4">
-        <v>832</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1664</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3328</v>
+      <c r="B8" s="3">
+        <v>4550</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5005</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5460</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5915</v>
       </c>
     </row>
   </sheetData>
